--- a/Data/Config - Copy.xlsx
+++ b/Data/Config - Copy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/shreyas_risodkar_uipath_com/Documents/UiPath_LearningDocs/Code/CommunicationsMiningDispatcherTemplate (2)/Communication-Mining-main/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/shreyas_risodkar_uipath_com/Documents/UiPath_LearningDocs/Code/CM_Template/Communication-Mining-main/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE50D32F-73CC-43A1-B12D-649FBE8F3545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="580" windowWidth="19120" windowHeight="10220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2029,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z979"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
